--- a/2022/Symphony/February/23.02.2022/MC Bank Statement February-2022.xlsx
+++ b/2022/Symphony/February/23.02.2022/MC Bank Statement February-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="241">
   <si>
     <t>Date</t>
   </si>
@@ -752,9 +752,6 @@
   </si>
   <si>
     <t>15.02.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harun </t>
   </si>
   <si>
     <t>16.02.2022</t>
@@ -2150,7 +2147,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="359">
+  <cellXfs count="360">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3049,6 +3046,9 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3870,33 +3870,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="312"/>
-      <c r="B1" s="312"/>
-      <c r="C1" s="312"/>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="312"/>
+      <c r="A1" s="313"/>
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="313"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="313"/>
-      <c r="B2" s="310" t="s">
+      <c r="A2" s="314"/>
+      <c r="B2" s="311" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="310"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="310"/>
+      <c r="C2" s="311"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="311"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="313"/>
-      <c r="B3" s="311" t="s">
+      <c r="A3" s="314"/>
+      <c r="B3" s="312" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="311"/>
-      <c r="E3" s="311"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="312"/>
+      <c r="E3" s="312"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="313"/>
+      <c r="A4" s="314"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3914,7 +3914,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="313"/>
+      <c r="A5" s="314"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -3932,7 +3932,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="313"/>
+      <c r="A6" s="314"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3944,7 +3944,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="313"/>
+      <c r="A7" s="314"/>
       <c r="B7" s="26" t="s">
         <v>60</v>
       </c>
@@ -3963,7 +3963,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="313"/>
+      <c r="A8" s="314"/>
       <c r="B8" s="26" t="s">
         <v>61</v>
       </c>
@@ -3982,7 +3982,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="313"/>
+      <c r="A9" s="314"/>
       <c r="B9" s="26" t="s">
         <v>63</v>
       </c>
@@ -4001,7 +4001,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="313"/>
+      <c r="A10" s="314"/>
       <c r="B10" s="26" t="s">
         <v>64</v>
       </c>
@@ -4020,7 +4020,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="313"/>
+      <c r="A11" s="314"/>
       <c r="B11" s="26" t="s">
         <v>65</v>
       </c>
@@ -4039,7 +4039,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="313"/>
+      <c r="A12" s="314"/>
       <c r="B12" s="26" t="s">
         <v>66</v>
       </c>
@@ -4058,7 +4058,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="313"/>
+      <c r="A13" s="314"/>
       <c r="B13" s="26" t="s">
         <v>67</v>
       </c>
@@ -4077,7 +4077,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="313"/>
+      <c r="A14" s="314"/>
       <c r="B14" s="26" t="s">
         <v>68</v>
       </c>
@@ -4096,7 +4096,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="313"/>
+      <c r="A15" s="314"/>
       <c r="B15" s="26" t="s">
         <v>69</v>
       </c>
@@ -4115,7 +4115,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="313"/>
+      <c r="A16" s="314"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4128,7 +4128,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="313"/>
+      <c r="A17" s="314"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4141,7 +4141,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="313"/>
+      <c r="A18" s="314"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4154,7 +4154,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="313"/>
+      <c r="A19" s="314"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4167,7 +4167,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="313"/>
+      <c r="A20" s="314"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4180,7 +4180,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="313"/>
+      <c r="A21" s="314"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4193,7 +4193,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="313"/>
+      <c r="A22" s="314"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4206,7 +4206,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="313"/>
+      <c r="A23" s="314"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4219,7 +4219,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="313"/>
+      <c r="A24" s="314"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4232,7 +4232,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="313"/>
+      <c r="A25" s="314"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4245,7 +4245,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="313"/>
+      <c r="A26" s="314"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4258,7 +4258,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="313"/>
+      <c r="A27" s="314"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4271,7 +4271,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="313"/>
+      <c r="A28" s="314"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4284,7 +4284,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="313"/>
+      <c r="A29" s="314"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4297,7 +4297,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="313"/>
+      <c r="A30" s="314"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4310,7 +4310,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="313"/>
+      <c r="A31" s="314"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4323,7 +4323,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="313"/>
+      <c r="A32" s="314"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4336,7 +4336,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="313"/>
+      <c r="A33" s="314"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4349,7 +4349,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="313"/>
+      <c r="A34" s="314"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4362,7 +4362,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="313"/>
+      <c r="A35" s="314"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4375,7 +4375,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="313"/>
+      <c r="A36" s="314"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4388,7 +4388,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="313"/>
+      <c r="A37" s="314"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4401,7 +4401,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="313"/>
+      <c r="A38" s="314"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4414,7 +4414,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="313"/>
+      <c r="A39" s="314"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4427,7 +4427,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="313"/>
+      <c r="A40" s="314"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4440,7 +4440,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="313"/>
+      <c r="A41" s="314"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4453,7 +4453,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="313"/>
+      <c r="A42" s="314"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4466,7 +4466,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="313"/>
+      <c r="A43" s="314"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4479,7 +4479,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="313"/>
+      <c r="A44" s="314"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4492,7 +4492,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="313"/>
+      <c r="A45" s="314"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4505,7 +4505,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="313"/>
+      <c r="A46" s="314"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4518,7 +4518,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="313"/>
+      <c r="A47" s="314"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4531,7 +4531,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="313"/>
+      <c r="A48" s="314"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4544,7 +4544,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="313"/>
+      <c r="A49" s="314"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4557,7 +4557,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="313"/>
+      <c r="A50" s="314"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4570,7 +4570,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="313"/>
+      <c r="A51" s="314"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4583,7 +4583,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="313"/>
+      <c r="A52" s="314"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4596,7 +4596,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="313"/>
+      <c r="A53" s="314"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4609,7 +4609,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="313"/>
+      <c r="A54" s="314"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4622,7 +4622,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="313"/>
+      <c r="A55" s="314"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4634,7 +4634,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="313"/>
+      <c r="A56" s="314"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4646,7 +4646,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="313"/>
+      <c r="A57" s="314"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4658,7 +4658,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="313"/>
+      <c r="A58" s="314"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4670,7 +4670,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="313"/>
+      <c r="A59" s="314"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4682,7 +4682,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="313"/>
+      <c r="A60" s="314"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4694,7 +4694,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="313"/>
+      <c r="A61" s="314"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4706,7 +4706,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="313"/>
+      <c r="A62" s="314"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4718,7 +4718,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="313"/>
+      <c r="A63" s="314"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4730,7 +4730,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="313"/>
+      <c r="A64" s="314"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4742,7 +4742,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="313"/>
+      <c r="A65" s="314"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4754,7 +4754,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="313"/>
+      <c r="A66" s="314"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4766,7 +4766,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="313"/>
+      <c r="A67" s="314"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4778,7 +4778,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="313"/>
+      <c r="A68" s="314"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4790,7 +4790,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="313"/>
+      <c r="A69" s="314"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4802,7 +4802,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="313"/>
+      <c r="A70" s="314"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4814,7 +4814,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="313"/>
+      <c r="A71" s="314"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4826,7 +4826,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="313"/>
+      <c r="A72" s="314"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4838,7 +4838,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="313"/>
+      <c r="A73" s="314"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4850,7 +4850,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="313"/>
+      <c r="A74" s="314"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4862,7 +4862,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="313"/>
+      <c r="A75" s="314"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4874,7 +4874,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="313"/>
+      <c r="A76" s="314"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4886,7 +4886,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="313"/>
+      <c r="A77" s="314"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4898,7 +4898,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="313"/>
+      <c r="A78" s="314"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4910,7 +4910,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="313"/>
+      <c r="A79" s="314"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -4922,7 +4922,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="313"/>
+      <c r="A80" s="314"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -4934,7 +4934,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="313"/>
+      <c r="A81" s="314"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -4946,7 +4946,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="313"/>
+      <c r="A82" s="314"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -4958,7 +4958,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="313"/>
+      <c r="A83" s="314"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5015,33 +5015,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="312"/>
-      <c r="B1" s="312"/>
-      <c r="C1" s="312"/>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="312"/>
+      <c r="A1" s="313"/>
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="313"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="313"/>
-      <c r="B2" s="310" t="s">
+      <c r="A2" s="314"/>
+      <c r="B2" s="311" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="310"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="310"/>
+      <c r="C2" s="311"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="311"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="313"/>
-      <c r="B3" s="311" t="s">
+      <c r="A3" s="314"/>
+      <c r="B3" s="312" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="311"/>
-      <c r="E3" s="311"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="312"/>
+      <c r="E3" s="312"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="313"/>
+      <c r="A4" s="314"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5059,7 +5059,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="313"/>
+      <c r="A5" s="314"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5077,7 +5077,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="313"/>
+      <c r="A6" s="314"/>
       <c r="B6" s="26" t="s">
         <v>201</v>
       </c>
@@ -5095,7 +5095,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="313"/>
+      <c r="A7" s="314"/>
       <c r="B7" s="26" t="s">
         <v>202</v>
       </c>
@@ -5113,7 +5113,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="313"/>
+      <c r="A8" s="314"/>
       <c r="B8" s="26" t="s">
         <v>204</v>
       </c>
@@ -5131,7 +5131,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="313"/>
+      <c r="A9" s="314"/>
       <c r="B9" s="26" t="s">
         <v>207</v>
       </c>
@@ -5149,7 +5149,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="313"/>
+      <c r="A10" s="314"/>
       <c r="B10" s="26" t="s">
         <v>208</v>
       </c>
@@ -5167,7 +5167,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="313"/>
+      <c r="A11" s="314"/>
       <c r="B11" s="26" t="s">
         <v>210</v>
       </c>
@@ -5185,7 +5185,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="313"/>
+      <c r="A12" s="314"/>
       <c r="B12" s="26" t="s">
         <v>211</v>
       </c>
@@ -5203,7 +5203,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="313"/>
+      <c r="A13" s="314"/>
       <c r="B13" s="26" t="s">
         <v>213</v>
       </c>
@@ -5221,7 +5221,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="313"/>
+      <c r="A14" s="314"/>
       <c r="B14" s="26" t="s">
         <v>214</v>
       </c>
@@ -5239,7 +5239,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="313"/>
+      <c r="A15" s="314"/>
       <c r="B15" s="26" t="s">
         <v>215</v>
       </c>
@@ -5257,7 +5257,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="313"/>
+      <c r="A16" s="314"/>
       <c r="B16" s="26" t="s">
         <v>216</v>
       </c>
@@ -5275,7 +5275,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="313"/>
+      <c r="A17" s="314"/>
       <c r="B17" s="26" t="s">
         <v>225</v>
       </c>
@@ -5293,9 +5293,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="313"/>
+      <c r="A18" s="314"/>
       <c r="B18" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C18" s="267">
         <v>400000</v>
@@ -5311,9 +5311,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="313"/>
+      <c r="A19" s="314"/>
       <c r="B19" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C19" s="267">
         <v>400000</v>
@@ -5329,9 +5329,9 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="313"/>
+      <c r="A20" s="314"/>
       <c r="B20" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="267">
         <v>0</v>
@@ -5347,9 +5347,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="313"/>
+      <c r="A21" s="314"/>
       <c r="B21" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C21" s="267">
         <v>600000</v>
@@ -5365,9 +5365,9 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="313"/>
+      <c r="A22" s="314"/>
       <c r="B22" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C22" s="267">
         <v>0</v>
@@ -5383,9 +5383,9 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="313"/>
+      <c r="A23" s="314"/>
       <c r="B23" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C23" s="267">
         <v>450000</v>
@@ -5401,7 +5401,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="313"/>
+      <c r="A24" s="314"/>
       <c r="B24" s="26"/>
       <c r="C24" s="267"/>
       <c r="D24" s="267"/>
@@ -5413,7 +5413,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="313"/>
+      <c r="A25" s="314"/>
       <c r="B25" s="26"/>
       <c r="C25" s="267"/>
       <c r="D25" s="267"/>
@@ -5425,7 +5425,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="313"/>
+      <c r="A26" s="314"/>
       <c r="B26" s="26"/>
       <c r="C26" s="267"/>
       <c r="D26" s="267"/>
@@ -5437,7 +5437,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="313"/>
+      <c r="A27" s="314"/>
       <c r="B27" s="26"/>
       <c r="C27" s="267"/>
       <c r="D27" s="267"/>
@@ -5449,7 +5449,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="313"/>
+      <c r="A28" s="314"/>
       <c r="B28" s="26"/>
       <c r="C28" s="267"/>
       <c r="D28" s="267"/>
@@ -5461,7 +5461,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="313"/>
+      <c r="A29" s="314"/>
       <c r="B29" s="26"/>
       <c r="C29" s="267"/>
       <c r="D29" s="267"/>
@@ -5473,7 +5473,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="313"/>
+      <c r="A30" s="314"/>
       <c r="B30" s="26"/>
       <c r="C30" s="267"/>
       <c r="D30" s="267"/>
@@ -5485,7 +5485,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="313"/>
+      <c r="A31" s="314"/>
       <c r="B31" s="26"/>
       <c r="C31" s="267"/>
       <c r="D31" s="267"/>
@@ -5497,7 +5497,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="313"/>
+      <c r="A32" s="314"/>
       <c r="B32" s="26"/>
       <c r="C32" s="267"/>
       <c r="D32" s="267"/>
@@ -5509,7 +5509,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="313"/>
+      <c r="A33" s="314"/>
       <c r="B33" s="26"/>
       <c r="C33" s="267"/>
       <c r="D33" s="270"/>
@@ -5521,7 +5521,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="313"/>
+      <c r="A34" s="314"/>
       <c r="B34" s="26"/>
       <c r="C34" s="267"/>
       <c r="D34" s="267"/>
@@ -5533,7 +5533,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="313"/>
+      <c r="A35" s="314"/>
       <c r="B35" s="26"/>
       <c r="C35" s="267"/>
       <c r="D35" s="267"/>
@@ -5545,7 +5545,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="313"/>
+      <c r="A36" s="314"/>
       <c r="B36" s="26"/>
       <c r="C36" s="267"/>
       <c r="D36" s="267"/>
@@ -5557,7 +5557,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="313"/>
+      <c r="A37" s="314"/>
       <c r="B37" s="26"/>
       <c r="C37" s="267"/>
       <c r="D37" s="267"/>
@@ -5569,7 +5569,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="313"/>
+      <c r="A38" s="314"/>
       <c r="B38" s="26"/>
       <c r="C38" s="267"/>
       <c r="D38" s="267"/>
@@ -5581,7 +5581,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="313"/>
+      <c r="A39" s="314"/>
       <c r="B39" s="26"/>
       <c r="C39" s="267"/>
       <c r="D39" s="267"/>
@@ -5593,7 +5593,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="313"/>
+      <c r="A40" s="314"/>
       <c r="B40" s="26"/>
       <c r="C40" s="267"/>
       <c r="D40" s="267"/>
@@ -5605,7 +5605,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="313"/>
+      <c r="A41" s="314"/>
       <c r="B41" s="26"/>
       <c r="C41" s="267"/>
       <c r="D41" s="267"/>
@@ -5617,7 +5617,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="313"/>
+      <c r="A42" s="314"/>
       <c r="B42" s="26"/>
       <c r="C42" s="267"/>
       <c r="D42" s="267"/>
@@ -5629,7 +5629,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="313"/>
+      <c r="A43" s="314"/>
       <c r="B43" s="26"/>
       <c r="C43" s="267"/>
       <c r="D43" s="267"/>
@@ -5641,7 +5641,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="313"/>
+      <c r="A44" s="314"/>
       <c r="B44" s="26"/>
       <c r="C44" s="267"/>
       <c r="D44" s="267"/>
@@ -5653,7 +5653,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="313"/>
+      <c r="A45" s="314"/>
       <c r="B45" s="26"/>
       <c r="C45" s="267"/>
       <c r="D45" s="267"/>
@@ -5665,7 +5665,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="313"/>
+      <c r="A46" s="314"/>
       <c r="B46" s="26"/>
       <c r="C46" s="267"/>
       <c r="D46" s="267"/>
@@ -5677,7 +5677,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="313"/>
+      <c r="A47" s="314"/>
       <c r="B47" s="26"/>
       <c r="C47" s="267"/>
       <c r="D47" s="267"/>
@@ -5689,7 +5689,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="313"/>
+      <c r="A48" s="314"/>
       <c r="B48" s="26"/>
       <c r="C48" s="267"/>
       <c r="D48" s="267"/>
@@ -5701,7 +5701,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="313"/>
+      <c r="A49" s="314"/>
       <c r="B49" s="26"/>
       <c r="C49" s="267"/>
       <c r="D49" s="267"/>
@@ -5713,7 +5713,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="313"/>
+      <c r="A50" s="314"/>
       <c r="B50" s="26"/>
       <c r="C50" s="267"/>
       <c r="D50" s="267"/>
@@ -5725,7 +5725,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="313"/>
+      <c r="A51" s="314"/>
       <c r="B51" s="26"/>
       <c r="C51" s="267"/>
       <c r="D51" s="267"/>
@@ -5737,7 +5737,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="313"/>
+      <c r="A52" s="314"/>
       <c r="B52" s="26"/>
       <c r="C52" s="267"/>
       <c r="D52" s="267"/>
@@ -5749,7 +5749,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="313"/>
+      <c r="A53" s="314"/>
       <c r="B53" s="26"/>
       <c r="C53" s="267"/>
       <c r="D53" s="267"/>
@@ -5761,7 +5761,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="313"/>
+      <c r="A54" s="314"/>
       <c r="B54" s="26"/>
       <c r="C54" s="267"/>
       <c r="D54" s="267"/>
@@ -5773,7 +5773,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="313"/>
+      <c r="A55" s="314"/>
       <c r="B55" s="26"/>
       <c r="C55" s="267"/>
       <c r="D55" s="267"/>
@@ -5784,7 +5784,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="313"/>
+      <c r="A56" s="314"/>
       <c r="B56" s="26"/>
       <c r="C56" s="267"/>
       <c r="D56" s="267"/>
@@ -5795,7 +5795,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="313"/>
+      <c r="A57" s="314"/>
       <c r="B57" s="26"/>
       <c r="C57" s="267"/>
       <c r="D57" s="267"/>
@@ -5806,7 +5806,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="313"/>
+      <c r="A58" s="314"/>
       <c r="B58" s="26"/>
       <c r="C58" s="267"/>
       <c r="D58" s="267"/>
@@ -5817,7 +5817,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="313"/>
+      <c r="A59" s="314"/>
       <c r="B59" s="26"/>
       <c r="C59" s="267"/>
       <c r="D59" s="267"/>
@@ -5828,7 +5828,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="313"/>
+      <c r="A60" s="314"/>
       <c r="B60" s="26"/>
       <c r="C60" s="267"/>
       <c r="D60" s="267"/>
@@ -5839,7 +5839,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="313"/>
+      <c r="A61" s="314"/>
       <c r="B61" s="26"/>
       <c r="C61" s="267"/>
       <c r="D61" s="267"/>
@@ -5850,7 +5850,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="313"/>
+      <c r="A62" s="314"/>
       <c r="B62" s="26"/>
       <c r="C62" s="267"/>
       <c r="D62" s="267"/>
@@ -5861,7 +5861,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="313"/>
+      <c r="A63" s="314"/>
       <c r="B63" s="26"/>
       <c r="C63" s="267"/>
       <c r="D63" s="267"/>
@@ -5872,7 +5872,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="313"/>
+      <c r="A64" s="314"/>
       <c r="B64" s="26"/>
       <c r="C64" s="267"/>
       <c r="D64" s="267"/>
@@ -5883,7 +5883,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="313"/>
+      <c r="A65" s="314"/>
       <c r="B65" s="26"/>
       <c r="C65" s="267"/>
       <c r="D65" s="267"/>
@@ -5894,7 +5894,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="313"/>
+      <c r="A66" s="314"/>
       <c r="B66" s="26"/>
       <c r="C66" s="267"/>
       <c r="D66" s="267"/>
@@ -5905,7 +5905,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="313"/>
+      <c r="A67" s="314"/>
       <c r="B67" s="26"/>
       <c r="C67" s="267"/>
       <c r="D67" s="267"/>
@@ -5916,7 +5916,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="313"/>
+      <c r="A68" s="314"/>
       <c r="B68" s="26"/>
       <c r="C68" s="267"/>
       <c r="D68" s="267"/>
@@ -5927,7 +5927,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="313"/>
+      <c r="A69" s="314"/>
       <c r="B69" s="26"/>
       <c r="C69" s="267"/>
       <c r="D69" s="267"/>
@@ -5938,7 +5938,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="313"/>
+      <c r="A70" s="314"/>
       <c r="B70" s="26"/>
       <c r="C70" s="267"/>
       <c r="D70" s="267"/>
@@ -5949,7 +5949,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="313"/>
+      <c r="A71" s="314"/>
       <c r="B71" s="26"/>
       <c r="C71" s="267"/>
       <c r="D71" s="267"/>
@@ -5960,7 +5960,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="313"/>
+      <c r="A72" s="314"/>
       <c r="B72" s="26"/>
       <c r="C72" s="267"/>
       <c r="D72" s="267"/>
@@ -5971,7 +5971,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="313"/>
+      <c r="A73" s="314"/>
       <c r="B73" s="26"/>
       <c r="C73" s="267"/>
       <c r="D73" s="267"/>
@@ -5982,7 +5982,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="313"/>
+      <c r="A74" s="314"/>
       <c r="B74" s="26"/>
       <c r="C74" s="267"/>
       <c r="D74" s="267"/>
@@ -5993,7 +5993,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="313"/>
+      <c r="A75" s="314"/>
       <c r="B75" s="26"/>
       <c r="C75" s="267"/>
       <c r="D75" s="267"/>
@@ -6004,7 +6004,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="313"/>
+      <c r="A76" s="314"/>
       <c r="B76" s="26"/>
       <c r="C76" s="267"/>
       <c r="D76" s="267"/>
@@ -6015,7 +6015,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="313"/>
+      <c r="A77" s="314"/>
       <c r="B77" s="26"/>
       <c r="C77" s="267"/>
       <c r="D77" s="267"/>
@@ -6026,7 +6026,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="313"/>
+      <c r="A78" s="314"/>
       <c r="B78" s="26"/>
       <c r="C78" s="267"/>
       <c r="D78" s="267"/>
@@ -6037,7 +6037,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="313"/>
+      <c r="A79" s="314"/>
       <c r="B79" s="26"/>
       <c r="C79" s="267"/>
       <c r="D79" s="267"/>
@@ -6049,7 +6049,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="313"/>
+      <c r="A80" s="314"/>
       <c r="B80" s="26"/>
       <c r="C80" s="267"/>
       <c r="D80" s="267"/>
@@ -6061,7 +6061,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="313"/>
+      <c r="A81" s="314"/>
       <c r="B81" s="26"/>
       <c r="C81" s="267"/>
       <c r="D81" s="267"/>
@@ -6073,7 +6073,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="313"/>
+      <c r="A82" s="314"/>
       <c r="B82" s="26"/>
       <c r="C82" s="267"/>
       <c r="D82" s="267"/>
@@ -6085,7 +6085,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="313"/>
+      <c r="A83" s="314"/>
       <c r="B83" s="31"/>
       <c r="C83" s="269">
         <f>SUM(C5:C72)</f>
@@ -6143,67 +6143,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="319" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="318"/>
-      <c r="C1" s="318"/>
-      <c r="D1" s="318"/>
-      <c r="E1" s="318"/>
-      <c r="F1" s="318"/>
-      <c r="G1" s="318"/>
-      <c r="H1" s="318"/>
-      <c r="I1" s="318"/>
-      <c r="J1" s="318"/>
-      <c r="K1" s="318"/>
-      <c r="L1" s="318"/>
-      <c r="M1" s="318"/>
-      <c r="N1" s="318"/>
-      <c r="O1" s="318"/>
-      <c r="P1" s="318"/>
-      <c r="Q1" s="318"/>
+      <c r="B1" s="319"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
+      <c r="E1" s="319"/>
+      <c r="F1" s="319"/>
+      <c r="G1" s="319"/>
+      <c r="H1" s="319"/>
+      <c r="I1" s="319"/>
+      <c r="J1" s="319"/>
+      <c r="K1" s="319"/>
+      <c r="L1" s="319"/>
+      <c r="M1" s="319"/>
+      <c r="N1" s="319"/>
+      <c r="O1" s="319"/>
+      <c r="P1" s="319"/>
+      <c r="Q1" s="319"/>
     </row>
     <row r="2" spans="1:24" s="72" customFormat="1" ht="18">
-      <c r="A2" s="319" t="s">
+      <c r="A2" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="319"/>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
-      <c r="F2" s="319"/>
-      <c r="G2" s="319"/>
-      <c r="H2" s="319"/>
-      <c r="I2" s="319"/>
-      <c r="J2" s="319"/>
-      <c r="K2" s="319"/>
-      <c r="L2" s="319"/>
-      <c r="M2" s="319"/>
-      <c r="N2" s="319"/>
-      <c r="O2" s="319"/>
-      <c r="P2" s="319"/>
-      <c r="Q2" s="319"/>
+      <c r="B2" s="320"/>
+      <c r="C2" s="320"/>
+      <c r="D2" s="320"/>
+      <c r="E2" s="320"/>
+      <c r="F2" s="320"/>
+      <c r="G2" s="320"/>
+      <c r="H2" s="320"/>
+      <c r="I2" s="320"/>
+      <c r="J2" s="320"/>
+      <c r="K2" s="320"/>
+      <c r="L2" s="320"/>
+      <c r="M2" s="320"/>
+      <c r="N2" s="320"/>
+      <c r="O2" s="320"/>
+      <c r="P2" s="320"/>
+      <c r="Q2" s="320"/>
     </row>
     <row r="3" spans="1:24" s="73" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="320" t="s">
+      <c r="A3" s="321" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="321"/>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
-      <c r="F3" s="321"/>
-      <c r="G3" s="321"/>
-      <c r="H3" s="321"/>
-      <c r="I3" s="321"/>
-      <c r="J3" s="321"/>
-      <c r="K3" s="321"/>
-      <c r="L3" s="321"/>
-      <c r="M3" s="321"/>
-      <c r="N3" s="321"/>
-      <c r="O3" s="321"/>
-      <c r="P3" s="321"/>
-      <c r="Q3" s="322"/>
+      <c r="B3" s="322"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="322"/>
+      <c r="H3" s="322"/>
+      <c r="I3" s="322"/>
+      <c r="J3" s="322"/>
+      <c r="K3" s="322"/>
+      <c r="L3" s="322"/>
+      <c r="M3" s="322"/>
+      <c r="N3" s="322"/>
+      <c r="O3" s="322"/>
+      <c r="P3" s="322"/>
+      <c r="Q3" s="323"/>
       <c r="S3" s="56"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6212,50 +6212,50 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="74" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="323" t="s">
+      <c r="A4" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="325" t="s">
+      <c r="B4" s="326" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="314" t="s">
+      <c r="C4" s="315" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="314" t="s">
+      <c r="D4" s="315" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="314" t="s">
+      <c r="E4" s="315" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="314"/>
-      <c r="G4" s="314" t="s">
+      <c r="F4" s="315"/>
+      <c r="G4" s="315" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="314" t="s">
+      <c r="H4" s="315" t="s">
         <v>170</v>
       </c>
-      <c r="I4" s="314" t="s">
+      <c r="I4" s="315" t="s">
         <v>169</v>
       </c>
-      <c r="J4" s="314" t="s">
+      <c r="J4" s="315" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="314" t="s">
+      <c r="K4" s="315" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="314" t="s">
+      <c r="L4" s="315" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="314" t="s">
+      <c r="M4" s="315" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="314" t="s">
+      <c r="N4" s="315" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="316" t="s">
+      <c r="O4" s="317" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="327" t="s">
+      <c r="P4" s="328" t="s">
         <v>72</v>
       </c>
       <c r="Q4" s="135" t="s">
@@ -6268,22 +6268,22 @@
       <c r="W4" s="76"/>
     </row>
     <row r="5" spans="1:24" s="74" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="324"/>
-      <c r="B5" s="326"/>
-      <c r="C5" s="315"/>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="315"/>
-      <c r="I5" s="315"/>
-      <c r="J5" s="315"/>
-      <c r="K5" s="315"/>
-      <c r="L5" s="315"/>
-      <c r="M5" s="315"/>
-      <c r="N5" s="315"/>
-      <c r="O5" s="317"/>
-      <c r="P5" s="328"/>
+      <c r="A5" s="325"/>
+      <c r="B5" s="327"/>
+      <c r="C5" s="316"/>
+      <c r="D5" s="316"/>
+      <c r="E5" s="316"/>
+      <c r="F5" s="316"/>
+      <c r="G5" s="316"/>
+      <c r="H5" s="316"/>
+      <c r="I5" s="316"/>
+      <c r="J5" s="316"/>
+      <c r="K5" s="316"/>
+      <c r="L5" s="316"/>
+      <c r="M5" s="316"/>
+      <c r="N5" s="316"/>
+      <c r="O5" s="318"/>
+      <c r="P5" s="329"/>
       <c r="Q5" s="136" t="s">
         <v>47</v>
       </c>
@@ -6838,7 +6838,7 @@
     </row>
     <row r="19" spans="1:23" s="13" customFormat="1">
       <c r="A19" s="81" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B19" s="89">
         <v>300</v>
@@ -6880,7 +6880,7 @@
     </row>
     <row r="20" spans="1:23" s="13" customFormat="1">
       <c r="A20" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B20" s="89">
         <v>1500</v>
@@ -6924,7 +6924,7 @@
     </row>
     <row r="21" spans="1:23" s="13" customFormat="1">
       <c r="A21" s="81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B21" s="89">
         <v>900</v>
@@ -6960,7 +6960,7 @@
     </row>
     <row r="22" spans="1:23" s="13" customFormat="1">
       <c r="A22" s="81" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B22" s="89">
         <v>500</v>
@@ -6996,7 +6996,7 @@
     </row>
     <row r="23" spans="1:23" s="97" customFormat="1">
       <c r="A23" s="81" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B23" s="89">
         <v>1000</v>
@@ -7032,7 +7032,7 @@
     </row>
     <row r="24" spans="1:23" s="13" customFormat="1">
       <c r="A24" s="81" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B24" s="89">
         <v>800</v>
@@ -7073,7 +7073,7 @@
     </row>
     <row r="25" spans="1:23" s="97" customFormat="1">
       <c r="A25" s="81" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B25" s="89"/>
       <c r="C25" s="82"/>
@@ -9444,6 +9444,7 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
@@ -9462,7 +9463,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9476,8 +9476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9504,14 +9504,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="333" t="s">
+      <c r="A1" s="334" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="334"/>
-      <c r="C1" s="334"/>
-      <c r="D1" s="334"/>
-      <c r="E1" s="334"/>
-      <c r="F1" s="335"/>
+      <c r="B1" s="335"/>
+      <c r="C1" s="335"/>
+      <c r="D1" s="335"/>
+      <c r="E1" s="335"/>
+      <c r="F1" s="336"/>
       <c r="G1" s="67"/>
       <c r="H1" s="67"/>
       <c r="I1" s="152"/>
@@ -9605,14 +9605,14 @@
       <c r="CS1" s="147"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="336" t="s">
+      <c r="A2" s="337" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="337"/>
-      <c r="C2" s="337"/>
-      <c r="D2" s="337"/>
-      <c r="E2" s="337"/>
-      <c r="F2" s="338"/>
+      <c r="B2" s="338"/>
+      <c r="C2" s="338"/>
+      <c r="D2" s="338"/>
+      <c r="E2" s="338"/>
+      <c r="F2" s="339"/>
       <c r="G2" s="67"/>
       <c r="H2" s="67"/>
       <c r="I2" s="152"/>
@@ -9706,14 +9706,14 @@
       <c r="CS2" s="147"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="339" t="s">
+      <c r="A3" s="340" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="340"/>
-      <c r="C3" s="340"/>
-      <c r="D3" s="340"/>
-      <c r="E3" s="340"/>
-      <c r="F3" s="341"/>
+      <c r="B3" s="341"/>
+      <c r="C3" s="341"/>
+      <c r="D3" s="341"/>
+      <c r="E3" s="341"/>
+      <c r="F3" s="342"/>
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
       <c r="I3" s="152"/>
@@ -11351,7 +11351,7 @@
     </row>
     <row r="18" spans="1:97">
       <c r="A18" s="192" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B18" s="55">
         <v>316310</v>
@@ -11461,7 +11461,7 @@
     </row>
     <row r="19" spans="1:97">
       <c r="A19" s="192" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B19" s="55">
         <v>603660</v>
@@ -11571,7 +11571,7 @@
     </row>
     <row r="20" spans="1:97">
       <c r="A20" s="192" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B20" s="55">
         <v>386170</v>
@@ -11681,7 +11681,7 @@
     </row>
     <row r="21" spans="1:97">
       <c r="A21" s="192" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B21" s="55">
         <v>487880</v>
@@ -11791,7 +11791,7 @@
     </row>
     <row r="22" spans="1:97">
       <c r="A22" s="192" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B22" s="55">
         <v>943170</v>
@@ -11901,7 +11901,7 @@
     </row>
     <row r="23" spans="1:97">
       <c r="A23" s="192" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B23" s="55">
         <v>323350</v>
@@ -12011,20 +12011,20 @@
     </row>
     <row r="24" spans="1:97">
       <c r="A24" s="192" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B24" s="55">
         <v>379150</v>
       </c>
       <c r="C24" s="58">
-        <v>354772</v>
+        <v>357172</v>
       </c>
       <c r="D24" s="55">
         <v>868</v>
       </c>
       <c r="E24" s="55">
         <f t="shared" si="0"/>
-        <v>355640</v>
+        <v>358040</v>
       </c>
       <c r="F24" s="243"/>
       <c r="G24" s="255"/>
@@ -12945,7 +12945,7 @@
       </c>
       <c r="C33" s="275">
         <f>SUM(C5:C32)</f>
-        <v>8633505</v>
+        <v>8635905</v>
       </c>
       <c r="D33" s="274">
         <f>SUM(D5:D32)</f>
@@ -12953,11 +12953,11 @@
       </c>
       <c r="E33" s="274">
         <f>SUM(E5:E32)</f>
-        <v>8675320</v>
+        <v>8677720</v>
       </c>
       <c r="F33" s="274">
         <f>B33-E33</f>
-        <v>407100</v>
+        <v>404700</v>
       </c>
       <c r="G33" s="276"/>
       <c r="H33" s="148"/>
@@ -13152,12 +13152,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="142"/>
-      <c r="B35" s="331" t="s">
+      <c r="B35" s="332" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="331"/>
-      <c r="D35" s="331"/>
-      <c r="E35" s="331"/>
+      <c r="C35" s="332"/>
+      <c r="D35" s="332"/>
+      <c r="E35" s="332"/>
       <c r="F35" s="143"/>
       <c r="G35" s="148"/>
       <c r="H35" s="148"/>
@@ -13595,7 +13595,7 @@
         <v>700</v>
       </c>
       <c r="E39" s="185" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F39" s="141"/>
       <c r="G39" s="148"/>
@@ -13701,10 +13701,10 @@
         <v>136</v>
       </c>
       <c r="D40" s="218">
-        <v>13650</v>
+        <v>14050</v>
       </c>
       <c r="E40" s="185" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="F40" s="141"/>
       <c r="G40" s="154"/>
@@ -13921,10 +13921,10 @@
         <v>136</v>
       </c>
       <c r="D42" s="218">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="E42" s="185" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F42" s="147"/>
       <c r="G42" s="156" t="s">
@@ -14038,10 +14038,10 @@
         <v>216</v>
       </c>
       <c r="F43" s="143"/>
-      <c r="G43" s="332"/>
-      <c r="H43" s="332"/>
-      <c r="I43" s="332"/>
-      <c r="J43" s="332"/>
+      <c r="G43" s="333"/>
+      <c r="H43" s="333"/>
+      <c r="I43" s="333"/>
+      <c r="J43" s="333"/>
       <c r="K43" s="67"/>
       <c r="L43" s="152"/>
       <c r="M43" s="67"/>
@@ -14144,7 +14144,7 @@
         <v>1500</v>
       </c>
       <c r="E44" s="186" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F44" s="144"/>
       <c r="G44" s="182"/>
@@ -14367,12 +14367,14 @@
       <c r="B46" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="137"/>
+      <c r="C46" s="137">
+        <v>1718911905</v>
+      </c>
       <c r="D46" s="220">
         <v>675690</v>
       </c>
       <c r="E46" s="285" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F46" s="140"/>
       <c r="G46" s="147"/>
@@ -14487,12 +14489,14 @@
       <c r="B47" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="125"/>
+      <c r="C47" s="125">
+        <v>1765002244</v>
+      </c>
       <c r="D47" s="221">
         <v>260000</v>
       </c>
       <c r="E47" s="187" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F47" s="141"/>
       <c r="G47" s="147"/>
@@ -14607,7 +14611,9 @@
       <c r="B48" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="C48" s="125"/>
+      <c r="C48" s="125">
+        <v>1716697790</v>
+      </c>
       <c r="D48" s="221">
         <v>200000</v>
       </c>
@@ -14727,7 +14733,9 @@
       <c r="B49" s="127" t="s">
         <v>150</v>
       </c>
-      <c r="C49" s="125"/>
+      <c r="C49" s="125">
+        <v>1743942020</v>
+      </c>
       <c r="D49" s="221">
         <v>200000</v>
       </c>
@@ -14847,12 +14855,14 @@
       <c r="B50" s="127" t="s">
         <v>115</v>
       </c>
-      <c r="C50" s="125"/>
+      <c r="C50" s="125">
+        <v>1733624262</v>
+      </c>
       <c r="D50" s="221">
         <v>257390</v>
       </c>
       <c r="E50" s="187" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F50" s="141"/>
       <c r="G50" s="147"/>
@@ -14967,7 +14977,9 @@
       <c r="B51" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="125"/>
+      <c r="C51" s="125">
+        <v>1723246584</v>
+      </c>
       <c r="D51" s="221">
         <v>69960</v>
       </c>
@@ -15087,12 +15099,14 @@
       <c r="B52" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="C52" s="125"/>
+      <c r="C52" s="125">
+        <v>1739791780</v>
+      </c>
       <c r="D52" s="221">
         <v>35160</v>
       </c>
       <c r="E52" s="188" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F52" s="141"/>
       <c r="G52" s="147"/>
@@ -15205,12 +15219,14 @@
       <c r="B53" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="C53" s="125"/>
+      <c r="C53" s="125">
+        <v>1725821212</v>
+      </c>
       <c r="D53" s="221">
         <v>40000</v>
       </c>
       <c r="E53" s="189" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F53" s="141"/>
       <c r="G53" s="147"/>
@@ -15323,12 +15339,14 @@
       <c r="B54" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="125"/>
+      <c r="C54" s="125">
+        <v>1749334499</v>
+      </c>
       <c r="D54" s="221">
         <v>54300</v>
       </c>
       <c r="E54" s="187" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F54" s="141"/>
       <c r="G54" s="147"/>
@@ -15768,19 +15786,19 @@
     </row>
     <row r="58" spans="1:97">
       <c r="A58" s="238" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B58" s="60" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C58" s="125" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D58" s="221">
-        <v>13500</v>
+        <v>78000</v>
       </c>
       <c r="E58" s="188" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="F58" s="141"/>
       <c r="G58" s="147"/>
@@ -15888,19 +15906,19 @@
     </row>
     <row r="59" spans="1:97">
       <c r="A59" s="238" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59" s="127" t="s">
-        <v>96</v>
+        <v>105</v>
+      </c>
+      <c r="B59" s="59" t="s">
+        <v>85</v>
       </c>
       <c r="C59" s="125" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D59" s="221">
-        <v>7000</v>
-      </c>
-      <c r="E59" s="189" t="s">
-        <v>142</v>
+        <v>10915</v>
+      </c>
+      <c r="E59" s="187" t="s">
+        <v>59</v>
       </c>
       <c r="F59" s="141"/>
       <c r="G59" s="147"/>
@@ -16008,19 +16026,19 @@
     </row>
     <row r="60" spans="1:97">
       <c r="A60" s="238" t="s">
-        <v>102</v>
-      </c>
-      <c r="B60" s="59" t="s">
-        <v>95</v>
+        <v>104</v>
+      </c>
+      <c r="B60" s="60" t="s">
+        <v>87</v>
       </c>
       <c r="C60" s="125" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D60" s="221">
-        <v>79590</v>
+        <v>20000</v>
       </c>
       <c r="E60" s="187" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="F60" s="141"/>
       <c r="G60" s="147"/>
@@ -16127,11 +16145,21 @@
       <c r="CS60" s="147"/>
     </row>
     <row r="61" spans="1:97">
-      <c r="A61" s="238"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="125"/>
-      <c r="D61" s="221"/>
-      <c r="E61" s="187"/>
+      <c r="A61" s="238" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="125" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="221">
+        <v>11000</v>
+      </c>
+      <c r="E61" s="188" t="s">
+        <v>139</v>
+      </c>
       <c r="F61" s="143"/>
       <c r="G61" s="147"/>
       <c r="H61" s="197" t="s">
@@ -16239,11 +16267,21 @@
       <c r="CS61" s="147"/>
     </row>
     <row r="62" spans="1:97">
-      <c r="A62" s="238"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="125"/>
-      <c r="D62" s="221"/>
-      <c r="E62" s="187"/>
+      <c r="A62" s="238" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="125" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="221">
+        <v>18210</v>
+      </c>
+      <c r="E62" s="188" t="s">
+        <v>215</v>
+      </c>
       <c r="F62" s="140"/>
       <c r="G62" s="147"/>
       <c r="H62" s="197" t="s">
@@ -16351,11 +16389,21 @@
       <c r="CS62" s="147"/>
     </row>
     <row r="63" spans="1:97">
-      <c r="A63" s="238"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="125"/>
-      <c r="D63" s="221"/>
-      <c r="E63" s="188"/>
+      <c r="A63" s="238" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" s="125" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" s="221">
+        <v>19370</v>
+      </c>
+      <c r="E63" s="189" t="s">
+        <v>133</v>
+      </c>
       <c r="F63" s="141"/>
       <c r="G63" s="147"/>
       <c r="H63" s="184" t="s">
@@ -16464,19 +16512,19 @@
     </row>
     <row r="64" spans="1:97">
       <c r="A64" s="238" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B64" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="125" t="s">
-        <v>76</v>
+        <v>91</v>
+      </c>
+      <c r="C64" s="125">
+        <v>1711270696</v>
       </c>
       <c r="D64" s="221">
-        <v>78000</v>
-      </c>
-      <c r="E64" s="188" t="s">
-        <v>215</v>
+        <v>22000</v>
+      </c>
+      <c r="E64" s="189" t="s">
+        <v>58</v>
       </c>
       <c r="F64" s="141"/>
       <c r="G64" s="147"/>
@@ -16586,19 +16634,19 @@
     </row>
     <row r="65" spans="1:97">
       <c r="A65" s="238" t="s">
-        <v>105</v>
-      </c>
-      <c r="B65" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="C65" s="125" t="s">
-        <v>75</v>
+        <v>104</v>
+      </c>
+      <c r="B65" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="125">
+        <v>1774412324</v>
       </c>
       <c r="D65" s="221">
-        <v>10915</v>
-      </c>
-      <c r="E65" s="187" t="s">
-        <v>59</v>
+        <v>29840</v>
+      </c>
+      <c r="E65" s="188" t="s">
+        <v>210</v>
       </c>
       <c r="F65" s="141"/>
       <c r="G65" s="147"/>
@@ -16708,19 +16756,19 @@
     </row>
     <row r="66" spans="1:97">
       <c r="A66" s="238" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B66" s="60" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C66" s="125" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D66" s="221">
-        <v>20000</v>
+        <v>13500</v>
       </c>
       <c r="E66" s="187" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="F66" s="141"/>
       <c r="G66" s="147"/>
@@ -16830,19 +16878,19 @@
     </row>
     <row r="67" spans="1:97">
       <c r="A67" s="238" t="s">
-        <v>104</v>
-      </c>
-      <c r="B67" s="60" t="s">
-        <v>92</v>
+        <v>102</v>
+      </c>
+      <c r="B67" s="61" t="s">
+        <v>96</v>
       </c>
       <c r="C67" s="125" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D67" s="221">
-        <v>11000</v>
-      </c>
-      <c r="E67" s="188" t="s">
-        <v>139</v>
+        <v>7000</v>
+      </c>
+      <c r="E67" s="187" t="s">
+        <v>142</v>
       </c>
       <c r="F67" s="141"/>
       <c r="G67" s="147"/>
@@ -16952,19 +17000,19 @@
     </row>
     <row r="68" spans="1:97">
       <c r="A68" s="238" t="s">
-        <v>104</v>
-      </c>
-      <c r="B68" s="60" t="s">
-        <v>88</v>
+        <v>102</v>
+      </c>
+      <c r="B68" s="59" t="s">
+        <v>95</v>
       </c>
       <c r="C68" s="125" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D68" s="221">
-        <v>18210</v>
+        <v>79590</v>
       </c>
       <c r="E68" s="188" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="F68" s="141"/>
       <c r="G68" s="147"/>
@@ -17074,19 +17122,19 @@
     </row>
     <row r="69" spans="1:97">
       <c r="A69" s="238" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B69" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="C69" s="125" t="s">
-        <v>79</v>
+        <v>219</v>
+      </c>
+      <c r="C69" s="125">
+        <v>1716094816</v>
       </c>
       <c r="D69" s="221">
-        <v>19370</v>
-      </c>
-      <c r="E69" s="189" t="s">
-        <v>133</v>
+        <v>10000</v>
+      </c>
+      <c r="E69" s="188" t="s">
+        <v>238</v>
       </c>
       <c r="F69" s="67"/>
       <c r="G69" s="147"/>
@@ -17196,19 +17244,19 @@
     </row>
     <row r="70" spans="1:97">
       <c r="A70" s="238" t="s">
-        <v>104</v>
-      </c>
-      <c r="B70" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="C70" s="125" t="s">
-        <v>80</v>
+        <v>100</v>
+      </c>
+      <c r="B70" s="127" t="s">
+        <v>231</v>
+      </c>
+      <c r="C70" s="125">
+        <v>1716601350</v>
       </c>
       <c r="D70" s="221">
-        <v>22000</v>
+        <v>10720</v>
       </c>
       <c r="E70" s="189" t="s">
-        <v>58</v>
+        <v>232</v>
       </c>
       <c r="F70" s="141"/>
       <c r="G70" s="147"/>
@@ -17318,17 +17366,19 @@
     </row>
     <row r="71" spans="1:97">
       <c r="A71" s="238" t="s">
-        <v>104</v>
-      </c>
-      <c r="B71" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="C71" s="125"/>
+        <v>220</v>
+      </c>
+      <c r="B71" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" s="125">
+        <v>1733273675</v>
+      </c>
       <c r="D71" s="221">
-        <v>29840</v>
-      </c>
-      <c r="E71" s="188" t="s">
-        <v>210</v>
+        <v>15000</v>
+      </c>
+      <c r="E71" s="187" t="s">
+        <v>238</v>
       </c>
       <c r="F71" s="143"/>
       <c r="G71" s="147"/>
@@ -17435,11 +17485,21 @@
       <c r="CS71" s="147"/>
     </row>
     <row r="72" spans="1:97">
-      <c r="A72" s="238"/>
-      <c r="B72" s="59"/>
-      <c r="C72" s="125"/>
-      <c r="D72" s="221"/>
-      <c r="E72" s="187"/>
+      <c r="A72" s="238" t="s">
+        <v>220</v>
+      </c>
+      <c r="B72" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="C72" s="125">
+        <v>1722383337</v>
+      </c>
+      <c r="D72" s="221">
+        <v>12000</v>
+      </c>
+      <c r="E72" s="187" t="s">
+        <v>232</v>
+      </c>
       <c r="F72" s="143"/>
       <c r="G72" s="147"/>
       <c r="H72" s="184"/>
@@ -17849,14 +17909,16 @@
       <c r="B76" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="C76" s="125"/>
+      <c r="C76" s="125">
+        <v>1729926081</v>
+      </c>
       <c r="D76" s="221">
         <v>16980</v>
       </c>
       <c r="E76" s="189" t="s">
         <v>218</v>
       </c>
-      <c r="F76" s="141"/>
+      <c r="F76" s="310"/>
       <c r="G76" s="147"/>
       <c r="H76" s="184" t="s">
         <v>162</v>
@@ -17967,14 +18029,16 @@
       <c r="B77" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="C77" s="125"/>
+      <c r="C77" s="125">
+        <v>1737600335</v>
+      </c>
       <c r="D77" s="221">
         <v>10000</v>
       </c>
       <c r="E77" s="188" t="s">
         <v>208</v>
       </c>
-      <c r="F77" s="141"/>
+      <c r="F77" s="310"/>
       <c r="G77" s="147"/>
       <c r="H77" s="197" t="s">
         <v>166</v>
@@ -18080,19 +18144,21 @@
     </row>
     <row r="78" spans="1:97">
       <c r="A78" s="238" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="B78" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="C78" s="125"/>
+        <v>166</v>
+      </c>
+      <c r="C78" s="125">
+        <v>1811710431</v>
+      </c>
       <c r="D78" s="221">
-        <v>10000</v>
-      </c>
-      <c r="E78" s="189" t="s">
-        <v>239</v>
-      </c>
-      <c r="F78" s="141"/>
+        <v>5800</v>
+      </c>
+      <c r="E78" s="187" t="s">
+        <v>168</v>
+      </c>
+      <c r="F78" s="310"/>
       <c r="G78" s="147"/>
       <c r="H78" s="197" t="s">
         <v>189</v>
@@ -18198,19 +18264,21 @@
     </row>
     <row r="79" spans="1:97">
       <c r="A79" s="238" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="B79" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="C79" s="125">
+        <v>1733192727</v>
+      </c>
+      <c r="D79" s="221">
+        <v>25000</v>
+      </c>
+      <c r="E79" s="189" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="125"/>
-      <c r="D79" s="221">
-        <v>10720</v>
-      </c>
-      <c r="E79" s="188" t="s">
-        <v>233</v>
-      </c>
-      <c r="F79" s="141"/>
+      <c r="F79" s="310"/>
       <c r="G79" s="147"/>
       <c r="H79" s="197" t="s">
         <v>152</v>
@@ -18316,19 +18384,21 @@
     </row>
     <row r="80" spans="1:97">
       <c r="A80" s="238" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B80" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="C80" s="125"/>
+        <v>152</v>
+      </c>
+      <c r="C80" s="125">
+        <v>1689614865</v>
+      </c>
       <c r="D80" s="221">
-        <v>5800</v>
-      </c>
-      <c r="E80" s="187" t="s">
-        <v>168</v>
-      </c>
-      <c r="F80" s="141" t="s">
+        <v>10880</v>
+      </c>
+      <c r="E80" s="188" t="s">
+        <v>238</v>
+      </c>
+      <c r="F80" s="310" t="s">
         <v>13</v>
       </c>
       <c r="G80" s="147"/>
@@ -18436,19 +18506,21 @@
     </row>
     <row r="81" spans="1:97">
       <c r="A81" s="238" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="B81" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="C81" s="125"/>
+        <v>94</v>
+      </c>
+      <c r="C81" s="125">
+        <v>1761236031</v>
+      </c>
       <c r="D81" s="221">
-        <v>25000</v>
-      </c>
-      <c r="E81" s="189" t="s">
-        <v>233</v>
-      </c>
-      <c r="F81" s="141"/>
+        <v>7000</v>
+      </c>
+      <c r="E81" s="188" t="s">
+        <v>139</v>
+      </c>
+      <c r="F81" s="310"/>
       <c r="G81" s="147"/>
       <c r="H81" s="197" t="s">
         <v>134</v>
@@ -18553,20 +18625,22 @@
       <c r="CS81" s="147"/>
     </row>
     <row r="82" spans="1:97">
-      <c r="A82" s="238" t="s">
-        <v>151</v>
+      <c r="A82" s="307" t="s">
+        <v>103</v>
       </c>
       <c r="B82" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="C82" s="125"/>
+        <v>134</v>
+      </c>
+      <c r="C82" s="125">
+        <v>1744752366</v>
+      </c>
       <c r="D82" s="221">
-        <v>10880</v>
+        <v>30250</v>
       </c>
       <c r="E82" s="188" t="s">
-        <v>239</v>
-      </c>
-      <c r="F82" s="143"/>
+        <v>215</v>
+      </c>
+      <c r="F82" s="56"/>
       <c r="G82" s="147"/>
       <c r="H82" s="197" t="s">
         <v>186</v>
@@ -18675,16 +18749,18 @@
         <v>103</v>
       </c>
       <c r="B83" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="C83" s="125"/>
+        <v>186</v>
+      </c>
+      <c r="C83" s="125">
+        <v>1736044874</v>
+      </c>
       <c r="D83" s="221">
-        <v>7000</v>
+        <v>7700</v>
       </c>
       <c r="E83" s="188" t="s">
-        <v>139</v>
-      </c>
-      <c r="F83" s="143"/>
+        <v>185</v>
+      </c>
+      <c r="F83" s="56"/>
       <c r="G83" s="147"/>
       <c r="H83" s="197" t="s">
         <v>173</v>
@@ -18789,20 +18865,22 @@
       <c r="CS83" s="147"/>
     </row>
     <row r="84" spans="1:97">
-      <c r="A84" s="307" t="s">
+      <c r="A84" s="238" t="s">
         <v>103</v>
       </c>
-      <c r="B84" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="C84" s="125"/>
+      <c r="B84" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84" s="125">
+        <v>1309083520</v>
+      </c>
       <c r="D84" s="221">
-        <v>30550</v>
+        <v>250000</v>
       </c>
       <c r="E84" s="188" t="s">
-        <v>215</v>
-      </c>
-      <c r="F84" s="143"/>
+        <v>227</v>
+      </c>
+      <c r="F84" s="56"/>
       <c r="G84" s="147"/>
       <c r="H84" s="197" t="s">
         <v>158</v>
@@ -18908,19 +18986,21 @@
     </row>
     <row r="85" spans="1:97">
       <c r="A85" s="238" t="s">
-        <v>103</v>
+        <v>239</v>
       </c>
       <c r="B85" s="60" t="s">
-        <v>186</v>
-      </c>
-      <c r="C85" s="125"/>
+        <v>240</v>
+      </c>
+      <c r="C85" s="125">
+        <v>1727608308</v>
+      </c>
       <c r="D85" s="221">
         <v>7700</v>
       </c>
       <c r="E85" s="188" t="s">
-        <v>185</v>
-      </c>
-      <c r="F85" s="143"/>
+        <v>238</v>
+      </c>
+      <c r="F85" s="56"/>
       <c r="G85" s="147"/>
       <c r="H85" s="197" t="s">
         <v>123</v>
@@ -19026,19 +19106,21 @@
     </row>
     <row r="86" spans="1:97">
       <c r="A86" s="238" t="s">
-        <v>103</v>
-      </c>
-      <c r="B86" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="C86" s="125"/>
+        <v>145</v>
+      </c>
+      <c r="B86" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C86" s="125">
+        <v>1713743854</v>
+      </c>
       <c r="D86" s="221">
-        <v>250000</v>
-      </c>
-      <c r="E86" s="188" t="s">
-        <v>228</v>
-      </c>
-      <c r="F86" s="143"/>
+        <v>14500</v>
+      </c>
+      <c r="E86" s="187" t="s">
+        <v>238</v>
+      </c>
+      <c r="F86" s="56"/>
       <c r="G86" s="147"/>
       <c r="H86" s="197" t="s">
         <v>146</v>
@@ -19144,19 +19226,21 @@
     </row>
     <row r="87" spans="1:97">
       <c r="A87" s="238" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="B87" s="60" t="s">
-        <v>241</v>
-      </c>
-      <c r="C87" s="125"/>
+        <v>146</v>
+      </c>
+      <c r="C87" s="125">
+        <v>1789726772</v>
+      </c>
       <c r="D87" s="221">
-        <v>7700</v>
-      </c>
-      <c r="E87" s="188" t="s">
-        <v>239</v>
-      </c>
-      <c r="F87" s="141"/>
+        <v>43400</v>
+      </c>
+      <c r="E87" s="187" t="s">
+        <v>238</v>
+      </c>
+      <c r="F87" s="310"/>
       <c r="G87" s="147"/>
       <c r="H87" s="197" t="s">
         <v>192</v>
@@ -19262,19 +19346,21 @@
     </row>
     <row r="88" spans="1:97">
       <c r="A88" s="238" t="s">
-        <v>145</v>
-      </c>
-      <c r="B88" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="C88" s="125"/>
+        <v>205</v>
+      </c>
+      <c r="B88" s="126" t="s">
+        <v>206</v>
+      </c>
+      <c r="C88" s="125">
+        <v>1722946475</v>
+      </c>
       <c r="D88" s="221">
-        <v>14500</v>
-      </c>
-      <c r="E88" s="187" t="s">
-        <v>239</v>
-      </c>
-      <c r="F88" s="141"/>
+        <v>9000</v>
+      </c>
+      <c r="E88" s="188" t="s">
+        <v>227</v>
+      </c>
+      <c r="F88" s="310"/>
       <c r="G88" s="147"/>
       <c r="H88" s="197" t="s">
         <v>184</v>
@@ -19380,19 +19466,21 @@
     </row>
     <row r="89" spans="1:97">
       <c r="A89" s="238" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="B89" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="C89" s="125"/>
+        <v>192</v>
+      </c>
+      <c r="C89" s="125">
+        <v>1729190349</v>
+      </c>
       <c r="D89" s="221">
-        <v>43400</v>
-      </c>
-      <c r="E89" s="187" t="s">
-        <v>239</v>
-      </c>
-      <c r="F89" s="141"/>
+        <v>8000</v>
+      </c>
+      <c r="E89" s="189" t="s">
+        <v>216</v>
+      </c>
+      <c r="F89" s="310"/>
       <c r="G89" s="147"/>
       <c r="H89" s="197" t="s">
         <v>55</v>
@@ -19499,20 +19587,12 @@
       <c r="CS89" s="147"/>
     </row>
     <row r="90" spans="1:97">
-      <c r="A90" s="237" t="s">
-        <v>220</v>
-      </c>
-      <c r="B90" s="60" t="s">
-        <v>221</v>
-      </c>
+      <c r="A90" s="237"/>
+      <c r="B90" s="60"/>
       <c r="C90" s="125"/>
-      <c r="D90" s="221">
-        <v>21000</v>
-      </c>
-      <c r="E90" s="187" t="s">
-        <v>239</v>
-      </c>
-      <c r="F90" s="141"/>
+      <c r="D90" s="221"/>
+      <c r="E90" s="189"/>
+      <c r="F90" s="310"/>
       <c r="G90" s="147"/>
       <c r="H90" s="197" t="s">
         <v>32</v>
@@ -19619,20 +19699,12 @@
       <c r="CS90" s="147"/>
     </row>
     <row r="91" spans="1:97">
-      <c r="A91" s="237" t="s">
-        <v>220</v>
-      </c>
-      <c r="B91" s="60" t="s">
-        <v>235</v>
-      </c>
+      <c r="A91" s="237"/>
+      <c r="B91" s="60"/>
       <c r="C91" s="125"/>
-      <c r="D91" s="221">
-        <v>12000</v>
-      </c>
-      <c r="E91" s="189" t="s">
-        <v>233</v>
-      </c>
-      <c r="F91" s="141"/>
+      <c r="D91" s="221"/>
+      <c r="E91" s="188"/>
+      <c r="F91" s="310"/>
       <c r="G91" s="147"/>
       <c r="H91" s="184" t="s">
         <v>138</v>
@@ -19739,20 +19811,11 @@
       <c r="CS91" s="147"/>
     </row>
     <row r="92" spans="1:97">
-      <c r="A92" s="238" t="s">
-        <v>205</v>
-      </c>
-      <c r="B92" s="126" t="s">
-        <v>206</v>
-      </c>
+      <c r="A92" s="238"/>
+      <c r="B92" s="60"/>
       <c r="C92" s="125"/>
-      <c r="D92" s="221">
-        <v>9000</v>
-      </c>
-      <c r="E92" s="188" t="s">
-        <v>228</v>
-      </c>
-      <c r="F92" s="147"/>
+      <c r="D92" s="221"/>
+      <c r="E92" s="187"/>
       <c r="G92" s="147"/>
       <c r="H92" s="197" t="s">
         <v>50</v>
@@ -19859,20 +19922,11 @@
       <c r="CS92" s="147"/>
     </row>
     <row r="93" spans="1:97">
-      <c r="A93" s="238" t="s">
-        <v>191</v>
-      </c>
-      <c r="B93" s="60" t="s">
-        <v>192</v>
-      </c>
+      <c r="A93" s="238"/>
+      <c r="B93" s="60"/>
       <c r="C93" s="125"/>
-      <c r="D93" s="221">
-        <v>8000</v>
-      </c>
-      <c r="E93" s="189" t="s">
-        <v>216</v>
-      </c>
-      <c r="F93" s="147"/>
+      <c r="D93" s="221"/>
+      <c r="E93" s="189"/>
       <c r="G93" s="147"/>
       <c r="H93" s="197"/>
       <c r="I93" s="62"/>
@@ -21909,19 +21963,11 @@
       <c r="CS112" s="147"/>
     </row>
     <row r="113" spans="1:97">
-      <c r="A113" s="238" t="s">
-        <v>183</v>
-      </c>
-      <c r="B113" s="60" t="s">
-        <v>226</v>
-      </c>
+      <c r="A113" s="238"/>
+      <c r="B113" s="60"/>
       <c r="C113" s="125"/>
-      <c r="D113" s="221">
-        <v>2500</v>
-      </c>
-      <c r="E113" s="189" t="s">
-        <v>228</v>
-      </c>
+      <c r="D113" s="221"/>
+      <c r="E113" s="189"/>
       <c r="F113" s="147"/>
       <c r="G113" s="147"/>
       <c r="H113" s="197"/>
@@ -22020,12 +22066,14 @@
     </row>
     <row r="114" spans="1:97">
       <c r="A114" s="238" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B114" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="C114" s="125"/>
+      <c r="C114" s="125">
+        <v>1763999686</v>
+      </c>
       <c r="D114" s="221">
         <v>25000</v>
       </c>
@@ -22135,7 +22183,9 @@
       <c r="B115" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="C115" s="125"/>
+      <c r="C115" s="125">
+        <v>1747475777</v>
+      </c>
       <c r="D115" s="221">
         <v>20000</v>
       </c>
@@ -22575,14 +22625,14 @@
       <c r="CS118" s="147"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="329" t="s">
+      <c r="A119" s="330" t="s">
         <v>33</v>
       </c>
-      <c r="B119" s="330"/>
-      <c r="C119" s="342"/>
+      <c r="B119" s="331"/>
+      <c r="C119" s="343"/>
       <c r="D119" s="224">
         <f>SUM(D37:D118)</f>
-        <v>2759125</v>
+        <v>2756725</v>
       </c>
       <c r="E119" s="216"/>
       <c r="F119" s="147"/>
@@ -22782,14 +22832,14 @@
       <c r="CS120" s="147"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="329" t="s">
+      <c r="A121" s="330" t="s">
         <v>34</v>
       </c>
-      <c r="B121" s="330"/>
-      <c r="C121" s="330"/>
+      <c r="B121" s="331"/>
+      <c r="C121" s="331"/>
       <c r="D121" s="224">
         <f>D119+M121</f>
-        <v>2759125</v>
+        <v>2756725</v>
       </c>
       <c r="E121" s="216"/>
       <c r="F121" s="147"/>
@@ -33995,7 +34045,7 @@
       <c r="L1357" s="53"/>
     </row>
   </sheetData>
-  <sortState ref="A76:E95">
+  <sortState ref="A76:E93">
     <sortCondition ref="A76"/>
   </sortState>
   <mergeCells count="7">
@@ -34021,8 +34071,8 @@
   </sheetPr>
   <dimension ref="A1:Y216"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34040,35 +34090,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="343" t="s">
+      <c r="A1" s="344" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="344"/>
-      <c r="C1" s="344"/>
-      <c r="D1" s="344"/>
-      <c r="E1" s="345"/>
+      <c r="B1" s="345"/>
+      <c r="C1" s="345"/>
+      <c r="D1" s="345"/>
+      <c r="E1" s="346"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="352" t="s">
+      <c r="A2" s="353" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="353"/>
-      <c r="C2" s="353"/>
-      <c r="D2" s="353"/>
-      <c r="E2" s="354"/>
+      <c r="B2" s="354"/>
+      <c r="C2" s="354"/>
+      <c r="D2" s="354"/>
+      <c r="E2" s="355"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="346" t="s">
-        <v>238</v>
-      </c>
-      <c r="B3" s="347"/>
-      <c r="C3" s="347"/>
-      <c r="D3" s="347"/>
-      <c r="E3" s="348"/>
+      <c r="A3" s="347" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="348"/>
+      <c r="C3" s="348"/>
+      <c r="D3" s="348"/>
+      <c r="E3" s="349"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -34091,15 +34141,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="355" t="s">
+      <c r="A4" s="356" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="356"/>
+      <c r="B4" s="357"/>
       <c r="C4" s="282"/>
-      <c r="D4" s="357" t="s">
+      <c r="D4" s="358" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="358"/>
+      <c r="E4" s="359"/>
       <c r="F4" s="5"/>
       <c r="G4" s="48"/>
       <c r="H4" s="7"/>
@@ -34199,7 +34249,7 @@
         <v>70</v>
       </c>
       <c r="E7" s="257">
-        <v>4018.5025000004098</v>
+        <v>6518.5025000004098</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="279"/>
@@ -34288,7 +34338,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="257">
-        <v>2759125</v>
+        <v>2756625</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="249"/>
@@ -34357,7 +34407,7 @@
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E12" s="259">
         <v>405566</v>
@@ -34509,13 +34559,13 @@
       <c r="Y16" s="7"/>
     </row>
     <row r="17" spans="1:25" ht="22.5">
-      <c r="A17" s="349" t="s">
+      <c r="A17" s="350" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="350"/>
-      <c r="C17" s="350"/>
-      <c r="D17" s="350"/>
-      <c r="E17" s="351"/>
+      <c r="B17" s="351"/>
+      <c r="C17" s="351"/>
+      <c r="D17" s="351"/>
+      <c r="E17" s="352"/>
       <c r="F17" s="5"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7"/>
@@ -34810,10 +34860,10 @@
     </row>
     <row r="26" spans="1:25" ht="21.75">
       <c r="A26" s="302" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B26" s="303">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="C26" s="304"/>
       <c r="D26" s="305" t="s">
